--- a/Overview/Overview.xlsx
+++ b/Overview/Overview.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="150">
   <si>
     <t xml:space="preserve">Nama Anggota 1 : Kania Kusvania - 202210370311078
 Nama Anggota 2 : Hamdatul Mabruroh - 202210370311435
@@ -384,6 +384,15 @@
 5. Menetapkan masa penangkapan dan penahanan dikurangkan seluruhnya dari pidana yang dijatuhkan[cite: 19723].
 6. Menetapkan Terdakwa tetap ditahan[cite: 19724].
 7. Membebankan kepada Terdakwa untuk membayar biaya perkara sejumlah Rp5.000,00[cite: 19745].</t>
+  </si>
+  <si>
+    <t>1. Menyatakan Terdakwa Rif'an Alias Arif Bin (Alm) Nasir terbukti secara sah dan meyakinkan bersalah melakukan tindak pidana "Tanpa hak dan melawan hukum membeli Narkotika Golongan I dalam bentuk bukan tanaman beratnya melebihi 5 (lima) gram,".
+2. Menjatuhkan pidana penjara selama 6 (enam) tahun.
+3. Menjatuhkan denda sejumlah Rp1.000.000.000,00 (satu milyar rupiah).
+4. Menetapkan apabila pidana denda tidak dibayar maka diganti dengan pidana penjara selama 1 (satu) bulan.
+5. Menetapkan masa penangkapan dan penahanan dikurangkan seluruhnya dari pidana yang dijatuhkan.
+6. Menetapkan Terdakwa tetap ditahan.
+7. Membebankan kepada Terdakwa membayar biaya perkara sejumlah Rp5.000,00.</t>
   </si>
   <si>
     <t>113/Pid.Sus/2024/PN Plk [cite: 25013]</t>
@@ -959,9 +968,9 @@
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="12.0"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
     </font>
   </fonts>
   <fills count="2">
@@ -972,8 +981,22 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
@@ -985,17 +1008,17 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1578,23 +1601,25 @@
       <c r="D25" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E25" s="5"/>
+      <c r="E25" s="5" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2">
         <v>21.0</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27">
@@ -1602,16 +1627,16 @@
         <v>22.0</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28">
@@ -1619,16 +1644,16 @@
         <v>23.0</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29">
@@ -1636,16 +1661,16 @@
         <v>24.0</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30">
@@ -1653,16 +1678,16 @@
         <v>25.0</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31">
@@ -1670,16 +1695,16 @@
         <v>26.0</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32">
@@ -1687,16 +1712,16 @@
         <v>27.0</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33">
@@ -1704,16 +1729,16 @@
         <v>28.0</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34">
@@ -1721,16 +1746,16 @@
         <v>29.0</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35">
@@ -1738,16 +1763,16 @@
         <v>30.0</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36">
@@ -1755,16 +1780,16 @@
         <v>31.0</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37">
@@ -1772,16 +1797,16 @@
         <v>32.0</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38">
@@ -1789,16 +1814,16 @@
         <v>33.0</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39">
@@ -1806,16 +1831,16 @@
         <v>34.0</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40">
@@ -1823,16 +1848,16 @@
         <v>35.0</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41">
@@ -1840,16 +1865,16 @@
         <v>36.0</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42">
@@ -1857,16 +1882,16 @@
         <v>37.0</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43">
@@ -1874,16 +1899,16 @@
         <v>38.0</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44">
@@ -1891,16 +1916,16 @@
         <v>39.0</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="45">
@@ -1908,16 +1933,16 @@
         <v>40.0</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46">
@@ -1925,16 +1950,16 @@
         <v>41.0</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47">
@@ -1942,16 +1967,16 @@
         <v>42.0</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48">
@@ -1959,16 +1984,16 @@
         <v>43.0</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="49">
@@ -1976,16 +2001,16 @@
         <v>44.0</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="50">
@@ -1993,16 +2018,16 @@
         <v>45.0</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="51">
@@ -2010,16 +2035,16 @@
         <v>46.0</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="52">
@@ -2027,16 +2052,16 @@
         <v>47.0</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="53">
@@ -2044,16 +2069,16 @@
         <v>48.0</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="54">
@@ -2061,16 +2086,16 @@
         <v>49.0</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="55">
@@ -2078,16 +2103,16 @@
         <v>50.0</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
